--- a/pnl_report.xlsx
+++ b/pnl_report.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Profit and Loss Statement" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Profit &amp; Loss Statement" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -27,6 +27,14 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,26 +63,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -441,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,432 +462,544 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="50" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="60" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="15" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Profit and Loss Statement for the Years Ended March 31, 2024 and 2023</t>
+          <t>Profit and Loss Statement</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Zenrise Clinical Research Pvt Ltd</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>For the Years Ended March 31, 2024 and 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>(Amount in INR Lakhs)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
           <t>Particulars</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>Note No.</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>Year Ended 31.03.2024</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>Year Ended 31.03.2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>I. Revenue from Operations</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>31.03.2024</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>31.03.2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>I. INCOME</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr"/>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Revenue from Operations</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>6.06</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>II. Other Income</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>3,308.58</t>
+        </is>
+      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>4,273.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Other Income</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>9.25</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>III. Total Income (I + II)</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr"/>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>15.31</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>IV. Expenses</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Cost of Materials Consumed</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
+        <is>
+          <t>119.78</t>
+        </is>
+      </c>
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>Total Income (I)</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr"/>
+      <c r="C10" s="6" t="inlineStr">
+        <is>
+          <t>3,428.36</t>
+        </is>
+      </c>
+      <c r="D10" s="6" t="inlineStr">
+        <is>
+          <t>4,365.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>II. EXPENSES</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr"/>
+      <c r="C12" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D12" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Cost of Materials Consumed</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr">
-        <is>
-          <t>25,040.27</t>
-        </is>
-      </c>
-      <c r="D8" s="5" t="inlineStr">
-        <is>
-          <t>23,967.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Employee Benefit Expense</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
+        <is>
+          <t>499.62</t>
+        </is>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>828.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Employee Benefit Expense</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr">
-        <is>
-          <t>103.75</t>
-        </is>
-      </c>
-      <c r="D9" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Other Expenses</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
+        <is>
+          <t>832.05</t>
+        </is>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>864.79</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Other Expenses</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr">
-        <is>
-          <t>508,256.45</t>
-        </is>
-      </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Depreciation and Amortisation Expense</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>1,204.57</t>
+        </is>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>1,472.55</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Depreciation and Amortisation Expense</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Loss on Sale of Assets &amp; Investments</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>184.80</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>169.98</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Loss on Sale of Assets &amp; Investments</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>22</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Finance Costs</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="C17" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Finance Costs</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr">
-        <is>
-          <t>17,223.48</t>
-        </is>
-      </c>
-      <c r="D13" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Payment to Auditor</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="C14" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   Total Expenses</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="inlineStr"/>
-      <c r="C15" s="5" t="inlineStr">
-        <is>
-          <t>550,623.95</t>
-        </is>
-      </c>
-      <c r="D15" s="5" t="inlineStr">
-        <is>
-          <t>23,967.61</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>V. Profit Before Exceptional and Extraordinary Items and Tax (III - IV)</t>
-        </is>
-      </c>
-      <c r="B16" s="3" t="inlineStr"/>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>-550,608.64</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="inlineStr">
-        <is>
-          <t>-23,965.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>VI. Exceptional Items</t>
-        </is>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>71.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>Total Expenses (II)</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr"/>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>2,801.68</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>3,406.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>Profit Before Exceptional Items and Tax (I - II)</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr"/>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>626.68</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>959.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Exceptional Items and Prior Period Adjustments</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
         <is>
           <t>27</t>
         </is>
       </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>VII. Profit Before Tax (V - VI)</t>
-        </is>
-      </c>
-      <c r="B18" s="3" t="inlineStr"/>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>-550,608.64</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>-23,965.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>VIII. Tax Expense:</t>
-        </is>
-      </c>
-      <c r="B19" s="3" t="inlineStr"/>
-      <c r="C19" s="3" t="inlineStr"/>
-      <c r="D19" s="3" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   (1) Current Tax</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D22" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>Profit Before Tax (I - II - III)</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr"/>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>626.68</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>959.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>IV. TAX EXPENSE</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr"/>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Current Tax</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
         <is>
           <t>25</t>
         </is>
       </c>
-      <c r="C20" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D20" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   (2) Deferred Tax</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="C26" s="8" t="inlineStr">
+        <is>
+          <t>17.37</t>
+        </is>
+      </c>
+      <c r="D26" s="8" t="inlineStr">
+        <is>
+          <t>157.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Deferred Tax Liability/(Asset)</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
         <is>
           <t>26</t>
         </is>
       </c>
-      <c r="C21" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="D21" s="5" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>IX. Profit After Tax for the period (VII - VIII)</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr"/>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>-550,608.64</t>
-        </is>
-      </c>
-      <c r="D22" s="3" t="inlineStr">
-        <is>
-          <t>-23,965.09</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>Notes:</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>* Fees is net of GST which is taken as input tax credit.</t>
+      <c r="C27" s="8" t="inlineStr">
+        <is>
+          <t>1,737.17</t>
+        </is>
+      </c>
+      <c r="D27" s="8" t="inlineStr">
+        <is>
+          <t>157.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  Income Tax Relating to Prior Year</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr"/>
+      <c r="C28" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D28" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  MAT Credit (Entitlement)/Utilisation</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr"/>
+      <c r="C29" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D29" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>Total Tax Expense (IV)</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr"/>
+      <c r="C30" s="6" t="inlineStr">
+        <is>
+          <t>1,754.54</t>
+        </is>
+      </c>
+      <c r="D30" s="6" t="inlineStr">
+        <is>
+          <t>315.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>Profit After Tax (III - IV)</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr"/>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>-1,127.86</t>
+        </is>
+      </c>
+      <c r="D32" s="6" t="inlineStr">
+        <is>
+          <t>643.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>The accompanying notes are an integral part of the financial statements.</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr"/>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>As per my report of even date.</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr"/>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
